--- a/Mybook.xlsx
+++ b/Mybook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\eclipse-workspace\Javalearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F19B45-3B98-4362-AAC6-E25608A9923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1E9D2-FFD6-4691-A873-A75000440DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -45,7 +45,34 @@
     <t>windsor</t>
   </si>
   <si>
-    <t>km</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>20 tuxedo ct</t>
+  </si>
+  <si>
+    <t>2760 forest glade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamal </t>
+  </si>
+  <si>
+    <t>Guelph</t>
+  </si>
+  <si>
+    <t>49 ironwood road</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -81,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,27 +412,50 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1.3</v>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Mybook.xlsx
+++ b/Mybook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\eclipse-workspace\Javalearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1E9D2-FFD6-4691-A873-A75000440DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F063DD-B8E0-45EF-A4D0-5CA317381A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Mybook.xlsx
+++ b/Mybook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\eclipse-workspace\Javalearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F063DD-B8E0-45EF-A4D0-5CA317381A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66AA11-371F-42F3-8E5A-4B51551FE358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -73,16 +73,28 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>50 ironwood road</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +470,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>